--- a/ExpirationDates.xlsx
+++ b/ExpirationDates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alkhudha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david.murga/Repos/School/fwd-capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57CEBB28-3C3F-4A97-82B3-4BF6DC85C40A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9EB4EC-601E-2B44-9C07-D06C96D07EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F03C314-0D57-413D-A1EF-9497F56AE87B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{1F03C314-0D57-413D-A1EF-9497F56AE87B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Produce</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>4-5</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>minimum</t>
   </si>
 </sst>
 </file>
@@ -500,192 +506,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5165A3-C017-4BFB-9242-48EA7A3D7E7B}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -866,6 +1004,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -874,20 +1018,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C94F377-A042-446F-AD93-1B32CBA97668}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C94F377-A042-446F-AD93-1B32CBA97668}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b3587b75-ece7-4f13-8fb0-a23b3186b20a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3C7415-6ED7-4E16-B75E-AD19DEA3DB50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B311ADBE-EB1A-4E1B-97C4-3527E1EAC63A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B311ADBE-EB1A-4E1B-97C4-3527E1EAC63A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3C7415-6ED7-4E16-B75E-AD19DEA3DB50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExpirationDates.xlsx
+++ b/ExpirationDates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david.murga/Repos/School/fwd-capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9EB4EC-601E-2B44-9C07-D06C96D07EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C375DDAE-22A0-3A47-9579-C45BA07572EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{1F03C314-0D57-413D-A1EF-9497F56AE87B}"/>
   </bookViews>
@@ -42,12 +42,6 @@
     <t>Days Until Expiration</t>
   </si>
   <si>
-    <t>Apples</t>
-  </si>
-  <si>
-    <t>Strawberries</t>
-  </si>
-  <si>
     <t>Grapes</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   </si>
   <si>
     <t>minimum</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,18 +526,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>60</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>28</v>
@@ -730,10 +730,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>21</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -1004,18 +1004,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1037,18 +1037,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3C7415-6ED7-4E16-B75E-AD19DEA3DB50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B311ADBE-EB1A-4E1B-97C4-3527E1EAC63A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3C7415-6ED7-4E16-B75E-AD19DEA3DB50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>